--- a/ErgoLux/localization/Hungarian (hu-HU) translation.xlsx
+++ b/ErgoLux/localization/Hungarian (hu-HU) translation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\source\repos\ErgoLux\ErgoLux\localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocsi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9750D7A-240E-474B-8E6C-445F58F02193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590AE1D-D85D-4BF0-B596-14226F60C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
   <sheets>
     <sheet name="hu-HU" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="564">
   <si>
     <t>Key</t>
   </si>
@@ -1223,6 +1223,525 @@
   </si>
   <si>
     <t>Hungarian (hu-HU)</t>
+  </si>
+  <si>
+    <t>Kép másolása</t>
+  </si>
+  <si>
+    <t>Célkereszt mutatása</t>
+  </si>
+  <si>
+    <t>Súgó</t>
+  </si>
+  <si>
+    <t>Megnyitás új ablakban</t>
+  </si>
+  <si>
+    <t>Mentés másként</t>
+  </si>
+  <si>
+    <t>Fejlesztette {0}</t>
+  </si>
+  <si>
+    <t>Szerzői jog {0}</t>
+  </si>
+  <si>
+    <t>Terméknév: {0}</t>
+  </si>
+  <si>
+    <t>Verzió {0}</t>
+  </si>
+  <si>
+    <t>&amp;Elfogadás</t>
+  </si>
+  <si>
+    <t>&amp;Elvetés</t>
+  </si>
+  <si>
+    <t>Adat kiválasztása</t>
+  </si>
+  <si>
+    <t>&amp;Exportálás</t>
+  </si>
+  <si>
+    <t>&amp;Visszaállítás</t>
+  </si>
+  <si>
+    <t>&amp;Beállítások</t>
+  </si>
+  <si>
+    <t>Fokozodó fraktáldimenzió</t>
+  </si>
+  <si>
+    <t>Megnyitás/mentés dialógus előző útjának elmentése</t>
+  </si>
+  <si>
+    <t>Entrópia (megköze</t>
+  </si>
+  <si>
+    <t>Teljesítmény (dB)</t>
+  </si>
+  <si>
+    <t>Szeretnél minden mezőt visszaállítani az alapértelmezett értékeikre?</t>
+  </si>
+  <si>
+    <t>Beállítások visszaállítása?</t>
+  </si>
+  <si>
+    <t>Hiba a beállítások fájl betöltése közben. {0} Az alapértelmezett értékek lesznek alkalmazva.</t>
+  </si>
+  <si>
+    <t>Hiba</t>
+  </si>
+  <si>
+    <t>ErgoLux adatok</t>
+  </si>
+  <si>
+    <t>Szenzorok száma</t>
+  </si>
+  <si>
+    <t>Adatpontok száma</t>
+  </si>
+  <si>
+    <t>Szenzor #</t>
+  </si>
+  <si>
+    <t>Átlag</t>
+  </si>
+  <si>
+    <t>Min/Átlag</t>
+  </si>
+  <si>
+    <t>Átlag/Max</t>
+  </si>
+  <si>
+    <t>Megvilágítás</t>
+  </si>
+  <si>
+    <t>Hiányzik egy üres vonal.</t>
+  </si>
+  <si>
+    <t>Hiányzanak az oszlop fejlécek (sorozatnevek)</t>
+  </si>
+  <si>
+    <t>napok, nap, napok</t>
+  </si>
+  <si>
+    <t>órák, óra, órák</t>
+  </si>
+  <si>
+    <t>percek, perc, percek</t>
+  </si>
+  <si>
+    <t>másodpercek, másodperc, másodpercek</t>
+  </si>
+  <si>
+    <t>és</t>
+  </si>
+  <si>
+    <t>A '{0}' szekció rosszul van formázva.</t>
+  </si>
+  <si>
+    <t>Kultúra kiválasztása</t>
+  </si>
+  <si>
+    <t>Beállítások</t>
+  </si>
+  <si>
+    <t>Jel analízis</t>
+  </si>
+  <si>
+    <t>Leírás</t>
+  </si>
+  <si>
+    <t>Eszköz helyszíne</t>
+  </si>
+  <si>
+    <t>Jelölések</t>
+  </si>
+  <si>
+    <t>Sorozatszám</t>
+  </si>
+  <si>
+    <t>Típus</t>
+  </si>
+  <si>
+    <t>Abszcissza tengely</t>
+  </si>
+  <si>
+    <t>Felhasználói felület és adat forma</t>
+  </si>
+  <si>
+    <t>Tömb minimum pontok</t>
+  </si>
+  <si>
+    <t>Baudráta</t>
+  </si>
+  <si>
+    <t>Adat-fájl út</t>
+  </si>
+  <si>
+    <t>Adatbitek</t>
+  </si>
+  <si>
+    <t>Numerikus adatformázási string</t>
+  </si>
+  <si>
+    <t>FTDI eszközlista</t>
+  </si>
+  <si>
+    <t>Frekvencia (Hz)</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>Széria kiválasztása</t>
+  </si>
+  <si>
+    <t>Tömbindex kezdete</t>
+  </si>
+  <si>
+    <t>Tömbindex vége</t>
+  </si>
+  <si>
+    <t>Ablak</t>
+  </si>
+  <si>
+    <t>&amp;Kilépés…</t>
+  </si>
+  <si>
+    <t>&amp;Megnyitás…</t>
+  </si>
+  <si>
+    <t>&amp;Mentés…</t>
+  </si>
+  <si>
+    <t>&amp;Súgó</t>
+  </si>
+  <si>
+    <t>&amp;Eszközök</t>
+  </si>
+  <si>
+    <t>&amp;Csatlakoztatás</t>
+  </si>
+  <si>
+    <t>&amp;Lecsatlakoztatás</t>
+  </si>
+  <si>
+    <t>&amp;Nézet</t>
+  </si>
+  <si>
+    <t>Átlagok</t>
+  </si>
+  <si>
+    <t>Radiális eloszlás</t>
+  </si>
+  <si>
+    <t>Menü mutatása</t>
+  </si>
+  <si>
+    <t>Arányok</t>
+  </si>
+  <si>
+    <t>Nyers adatok</t>
+  </si>
+  <si>
+    <t>Eszköztár mutatása</t>
+  </si>
+  <si>
+    <t>Leállási bitek</t>
+  </si>
+  <si>
+    <t>Nem sikerült felállítani az adat jellegzetességeket (adat bitek, leállási bitek, és paritás)</t>
+  </si>
+  <si>
+    <t>Paritás</t>
+  </si>
+  <si>
+    <t>Nem sikerült beállítani a Baudrátát. Hiba: {0}</t>
+  </si>
+  <si>
+    <t>Baudráta hiba</t>
+  </si>
+  <si>
+    <t>Bitek hiba</t>
+  </si>
+  <si>
+    <t>Az eszköz be van zárva. Kérem, menjen a Beállításokhoz hogy megnyissa az eszközt.</t>
+  </si>
+  <si>
+    <t>Eszközhiba</t>
+  </si>
+  <si>
+    <t>Nem sikerült betölteni az FTD2XX.DLL-t. Le vannak-e töltve az FTDI driverek?</t>
+  </si>
+  <si>
+    <t>Áramlás irányítás</t>
+  </si>
+  <si>
+    <t>Kísérlet az FTD2XX.DLL betöltésére innen:</t>
+  </si>
+  <si>
+    <t>Egy váratlan hiba lépett fel az adatfájl betöltése közben. Kérem próbálja újra később, vagy vegye fel a kapcsolatot a szoftverfejlesztővel. {0}</t>
+  </si>
+  <si>
+    <t>Nem sikerült megnyitni az eszközt</t>
+  </si>
+  <si>
+    <t>Nem sikerült megnyitni az eszközt. Hiba: {0}</t>
+  </si>
+  <si>
+    <t>Hiba az eszköz megnyitása közben</t>
+  </si>
+  <si>
+    <t>Egy váratlan hiba lépett fel az adatok lemezre való mentése közben. Kérem próbálja újra később, vagy vegye fel a kapcsolatot a szoftverfejlesztővel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiba a beállításfájl betöltése közben. {0} </t>
+  </si>
+  <si>
+    <t>Kezdési idő</t>
+  </si>
+  <si>
+    <t>Végzési idő</t>
+  </si>
+  <si>
+    <t>Teljes mérési idő</t>
+  </si>
+  <si>
+    <t>Mintavételezési frekvencia</t>
+  </si>
+  <si>
+    <t>Ergonómiai mérő szoftvereszköz a Konica Minolta T10-A megvilágításmérőjére. Semmiféle kereskedelmi célú felhasználat nem megengedett. Vegye fel a kapcsolatot a készítővel több információért. Ha hasznosnak találja ezt a programot, kérjük fontolja meg a támogatást!</t>
+  </si>
+  <si>
+    <t>Hiba a DLL betöltése közben</t>
+  </si>
+  <si>
+    <t>Hiba az adatok betöltése közben</t>
+  </si>
+  <si>
+    <t>Biztos hogy ki szeretnél lépni az applikációból?</t>
+  </si>
+  <si>
+    <t>Kilépés?</t>
+  </si>
+  <si>
+    <t>Nincs adat</t>
+  </si>
+  <si>
+    <t>Visszaállítás?</t>
+  </si>
+  <si>
+    <t>Adat sikeresen elmentve a lemezre.</t>
+  </si>
+  <si>
+    <t>Adatmentés</t>
+  </si>
+  <si>
+    <t>A Hausdorff-Besicovitch fraktáldimenzió számítása le lett állítva.</t>
+  </si>
+  <si>
+    <t>Leállítás</t>
+  </si>
+  <si>
+    <t>Megvilágítási adatok megnyitása</t>
+  </si>
+  <si>
+    <t>Max, átlag, min</t>
+  </si>
+  <si>
+    <t>Idő (másodpercek)</t>
+  </si>
+  <si>
+    <t>Megvilágítás eloszlása</t>
+  </si>
+  <si>
+    <t>Megvilágítási arányok</t>
+  </si>
+  <si>
+    <t>Arány</t>
+  </si>
+  <si>
+    <t>Jelenlegi kultúra formázás</t>
+  </si>
+  <si>
+    <t>Állandó kultúra formázás</t>
+  </si>
+  <si>
+    <t>Radiáis mérőműszer</t>
+  </si>
+  <si>
+    <t>Nem sikerült leolvasni az adatokat ebből a fájlból. {0}</t>
+  </si>
+  <si>
+    <t>Kultúranév hiba</t>
+  </si>
+  <si>
+    <t>A kultúra megkülönböztető stringnév érvénytelen. {0}</t>
+  </si>
+  <si>
+    <t>Érvénytelen numerikus érték: {0}</t>
+  </si>
+  <si>
+    <t>Hiba az adatelemzés közben</t>
+  </si>
+  <si>
+    <t>Hiba az adatok megnyitása közben</t>
+  </si>
+  <si>
+    <t>Megvilágítási adatok elmentése</t>
+  </si>
+  <si>
+    <t>Adatátvitel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eszköz azonosító </t>
+  </si>
+  <si>
+    <t>Azonosító</t>
+  </si>
+  <si>
+    <t>Helyszínazonosító</t>
+  </si>
+  <si>
+    <t>Lecsatlakoztatva</t>
+  </si>
+  <si>
+    <t>Kezelőfelület nyelve</t>
+  </si>
+  <si>
+    <t>Adatok mentése</t>
+  </si>
+  <si>
+    <t>Adatfájl megnyitása lemezről</t>
+  </si>
+  <si>
+    <t>Kilépés az applikációból</t>
+  </si>
+  <si>
+    <t>Adat fogadásának indítása T-10A eszközből</t>
+  </si>
+  <si>
+    <t>ErgoLux fájl (*.elux)|*.elux|Szövegfájl (*.txt)|*.txt|Binárisfájl (*.bin)|*.bin|Minden fájltípus (*.*)|*.*</t>
+  </si>
+  <si>
+    <t>PNG fájlok (*.png)|*.png|JPG fájlok (*.jpg, *.jpeg)|*.jpg;*.jpeg|BMP fájlok (*.bmp)|*.bmp;*.bmp|Összes fájltípus (*.*)|*.*</t>
+  </si>
+  <si>
+    <t>Névjegy</t>
+  </si>
+  <si>
+    <t>A szoftverről</t>
+  </si>
+  <si>
+    <t>Mentés</t>
+  </si>
+  <si>
+    <t>Megnyitás</t>
+  </si>
+  <si>
+    <t>Bezárás</t>
+  </si>
+  <si>
+    <t>Lecsatlakoztatás</t>
+  </si>
+  <si>
+    <t>Csatlakoztatás</t>
+  </si>
+  <si>
+    <t>Kezelőfelület</t>
+  </si>
+  <si>
+    <t>T-10A szenzor</t>
+  </si>
+  <si>
+    <t>Eszköztípus</t>
+  </si>
+  <si>
+    <t>Csatlakoztatási állapot</t>
+  </si>
+  <si>
+    <t>T-10A helyszínazonosító</t>
+  </si>
+  <si>
+    <t>Eszközazonosító</t>
+  </si>
+  <si>
+    <t>Grafikonok</t>
+  </si>
+  <si>
+    <t>Grafikonok, adatok és a kezelőfelület beállításai</t>
+  </si>
+  <si>
+    <t>Grafikon eloszlás</t>
+  </si>
+  <si>
+    <t>Grafikon.png</t>
+  </si>
+  <si>
+    <t>Jelkulcs leválasztása</t>
+  </si>
+  <si>
+    <t>Adatokhoz való igazítás</t>
+  </si>
+  <si>
+    <t>&amp;Névjegy</t>
+  </si>
+  <si>
+    <t>Nem sikerült beállítani az áramlásszabályozást. Hiba: {0}</t>
+  </si>
+  <si>
+    <t>Grafikon célkeresztjének mutatása</t>
+  </si>
+  <si>
+    <t>Grafikon arányok</t>
+  </si>
+  <si>
+    <t>Grafikon átlag</t>
+  </si>
+  <si>
+    <t>Grafikon nyers adatai</t>
+  </si>
+  <si>
+    <t>milliszekundumok, milliszekundum, milliszekundumok</t>
+  </si>
+  <si>
+    <t>&amp;Fájl</t>
+  </si>
+  <si>
+    <t>Hiba a driverek betöltése közben</t>
+  </si>
+  <si>
+    <t>Átvitel állapota</t>
+  </si>
+  <si>
+    <t>Leállítás és T-10A eszköz lecsatlakoztatása</t>
+  </si>
+  <si>
+    <t>Grafikon max, átlag és min</t>
+  </si>
+  <si>
+    <t>Grafikon ablak (másodpercek)</t>
+  </si>
+  <si>
+    <t>Áramlásszabályozási hiba</t>
+  </si>
+  <si>
+    <t>Hiba az adatok mentése közben</t>
+  </si>
+  <si>
+    <t>Nincs olyan adat, ami menthető lenne.</t>
+  </si>
+  <si>
+    <t>Hiba történt az időtúllépések beállításában. Hiba: {0}</t>
+  </si>
+  <si>
+    <t>Időtúllépési hiba</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1802,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1335,7 +1854,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1633,31 +2152,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99272ECF-2233-463E-857F-E2B1C41A5F55}">
   <dimension ref="B2:AH332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C132" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="61.140625" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="5" max="5" width="61.109375" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.33203125" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>380</v>
       </c>
@@ -1674,7 +2195,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>381</v>
       </c>
@@ -1687,9 +2208,11 @@
       <c r="E3" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>381</v>
       </c>
@@ -1702,9 +2225,11 @@
       <c r="E4" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>381</v>
       </c>
@@ -1717,9 +2242,11 @@
       <c r="E5" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>381</v>
       </c>
@@ -1732,9 +2259,11 @@
       <c r="E6" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>381</v>
       </c>
@@ -1747,9 +2276,11 @@
       <c r="E7" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>381</v>
       </c>
@@ -1762,9 +2293,11 @@
       <c r="E8" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>381</v>
       </c>
@@ -1777,9 +2310,11 @@
       <c r="E9" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>381</v>
       </c>
@@ -1792,9 +2327,11 @@
       <c r="E10" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>381</v>
       </c>
@@ -1807,9 +2344,11 @@
       <c r="E11" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>382</v>
       </c>
@@ -1822,9 +2361,11 @@
       <c r="E12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>382</v>
       </c>
@@ -1837,9 +2378,11 @@
       <c r="E13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>382</v>
       </c>
@@ -1852,9 +2395,11 @@
       <c r="E14" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>382</v>
       </c>
@@ -1867,9 +2412,11 @@
       <c r="E15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>382</v>
       </c>
@@ -1882,9 +2429,11 @@
       <c r="E16" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>382</v>
       </c>
@@ -1895,9 +2444,11 @@
       <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>382</v>
       </c>
@@ -1908,9 +2459,11 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>382</v>
       </c>
@@ -1921,9 +2474,11 @@
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>382</v>
       </c>
@@ -1934,9 +2489,11 @@
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>382</v>
       </c>
@@ -1947,9 +2504,11 @@
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>382</v>
       </c>
@@ -1960,9 +2519,11 @@
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>382</v>
       </c>
@@ -1973,9 +2534,11 @@
       <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>382</v>
       </c>
@@ -1986,9 +2549,11 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>382</v>
       </c>
@@ -1999,9 +2564,11 @@
       <c r="E25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>382</v>
       </c>
@@ -2012,9 +2579,11 @@
       <c r="E26" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>382</v>
       </c>
@@ -2025,9 +2594,11 @@
       <c r="E27" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>382</v>
       </c>
@@ -2038,9 +2609,11 @@
       <c r="E28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>382</v>
       </c>
@@ -2051,9 +2624,11 @@
       <c r="E29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>382</v>
       </c>
@@ -2064,9 +2639,11 @@
       <c r="E30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>382</v>
       </c>
@@ -2077,9 +2654,11 @@
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>382</v>
       </c>
@@ -2090,9 +2669,11 @@
       <c r="E32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>382</v>
       </c>
@@ -2103,9 +2684,11 @@
       <c r="E33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>382</v>
       </c>
@@ -2116,9 +2699,11 @@
       <c r="E34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>382</v>
       </c>
@@ -2129,9 +2714,11 @@
       <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>382</v>
       </c>
@@ -2142,9 +2729,11 @@
       <c r="E36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>382</v>
       </c>
@@ -2155,9 +2744,11 @@
       <c r="E37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>382</v>
       </c>
@@ -2168,9 +2759,11 @@
       <c r="E38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>382</v>
       </c>
@@ -2181,9 +2774,11 @@
       <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>382</v>
       </c>
@@ -2194,9 +2789,11 @@
       <c r="E40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>382</v>
       </c>
@@ -2207,9 +2804,11 @@
       <c r="E41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>382</v>
       </c>
@@ -2220,9 +2819,11 @@
       <c r="E42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>382</v>
       </c>
@@ -2233,9 +2834,11 @@
       <c r="E43" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>382</v>
       </c>
@@ -2246,9 +2849,11 @@
       <c r="E44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>382</v>
       </c>
@@ -2259,9 +2864,11 @@
       <c r="E45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>382</v>
       </c>
@@ -2272,9 +2879,11 @@
       <c r="E46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>382</v>
       </c>
@@ -2285,9 +2894,11 @@
       <c r="E47" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>382</v>
       </c>
@@ -2298,9 +2909,11 @@
       <c r="E48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>382</v>
       </c>
@@ -2311,9 +2924,11 @@
       <c r="E49" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>382</v>
       </c>
@@ -2324,9 +2939,11 @@
       <c r="E50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>382</v>
       </c>
@@ -2337,9 +2954,11 @@
       <c r="E51" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>382</v>
       </c>
@@ -2350,9 +2969,11 @@
       <c r="E52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>382</v>
       </c>
@@ -2363,9 +2984,11 @@
       <c r="E53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>382</v>
       </c>
@@ -2376,9 +2999,11 @@
       <c r="E54" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>382</v>
       </c>
@@ -2389,9 +3014,11 @@
       <c r="E55" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>382</v>
       </c>
@@ -2402,9 +3029,11 @@
       <c r="E56" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>382</v>
       </c>
@@ -2415,9 +3044,11 @@
       <c r="E57" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>382</v>
       </c>
@@ -2428,9 +3059,11 @@
       <c r="E58" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>382</v>
       </c>
@@ -2441,9 +3074,11 @@
       <c r="E59" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>382</v>
       </c>
@@ -2458,7 +3093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>382</v>
       </c>
@@ -2469,9 +3104,11 @@
       <c r="E61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>382</v>
       </c>
@@ -2482,9 +3119,11 @@
       <c r="E62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>382</v>
       </c>
@@ -2495,9 +3134,11 @@
       <c r="E63" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>382</v>
       </c>
@@ -2508,9 +3149,11 @@
       <c r="E64" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>382</v>
       </c>
@@ -2521,9 +3164,11 @@
       <c r="E65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>382</v>
       </c>
@@ -2538,7 +3183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>382</v>
       </c>
@@ -2549,9 +3194,11 @@
       <c r="E67" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>382</v>
       </c>
@@ -2562,9 +3209,11 @@
       <c r="E68" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>382</v>
       </c>
@@ -2575,9 +3224,11 @@
       <c r="E69" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>382</v>
       </c>
@@ -2588,9 +3239,11 @@
       <c r="E70" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>382</v>
       </c>
@@ -2601,9 +3254,11 @@
       <c r="E71" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>382</v>
       </c>
@@ -2614,9 +3269,11 @@
       <c r="E72" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>382</v>
       </c>
@@ -2627,9 +3284,11 @@
       <c r="E73" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>382</v>
       </c>
@@ -2640,9 +3299,11 @@
       <c r="E74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>382</v>
       </c>
@@ -2653,9 +3314,11 @@
       <c r="E75" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>382</v>
       </c>
@@ -2666,9 +3329,11 @@
       <c r="E76" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>382</v>
       </c>
@@ -2679,9 +3344,11 @@
       <c r="E77" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>382</v>
       </c>
@@ -2692,9 +3359,11 @@
       <c r="E78" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>382</v>
       </c>
@@ -2705,9 +3374,11 @@
       <c r="E79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>382</v>
       </c>
@@ -2718,9 +3389,11 @@
       <c r="E80" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>382</v>
       </c>
@@ -2731,9 +3404,11 @@
       <c r="E81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>382</v>
       </c>
@@ -2744,9 +3419,11 @@
       <c r="E82" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>382</v>
       </c>
@@ -2757,9 +3434,11 @@
       <c r="E83" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>382</v>
       </c>
@@ -2770,9 +3449,11 @@
       <c r="E84" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
         <v>382</v>
       </c>
@@ -2783,9 +3464,11 @@
       <c r="E85" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>382</v>
       </c>
@@ -2796,9 +3479,11 @@
       <c r="E86" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>382</v>
       </c>
@@ -2809,9 +3494,11 @@
       <c r="E87" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>382</v>
       </c>
@@ -2822,9 +3509,11 @@
       <c r="E88" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>382</v>
       </c>
@@ -2835,9 +3524,11 @@
       <c r="E89" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>382</v>
       </c>
@@ -2848,9 +3539,11 @@
       <c r="E90" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>382</v>
       </c>
@@ -2861,9 +3554,11 @@
       <c r="E91" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>382</v>
       </c>
@@ -2874,9 +3569,11 @@
       <c r="E92" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>382</v>
       </c>
@@ -2887,9 +3584,11 @@
       <c r="E93" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>382</v>
       </c>
@@ -2900,9 +3599,11 @@
       <c r="E94" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>382</v>
       </c>
@@ -2913,9 +3614,11 @@
       <c r="E95" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>382</v>
       </c>
@@ -2926,9 +3629,11 @@
       <c r="E96" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>382</v>
       </c>
@@ -2939,9 +3644,11 @@
       <c r="E97" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>382</v>
       </c>
@@ -2952,9 +3659,11 @@
       <c r="E98" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>382</v>
       </c>
@@ -2965,9 +3674,11 @@
       <c r="E99" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>382</v>
       </c>
@@ -2978,9 +3689,11 @@
       <c r="E100" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>382</v>
       </c>
@@ -2991,9 +3704,11 @@
       <c r="E101" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
         <v>382</v>
       </c>
@@ -3004,9 +3719,11 @@
       <c r="E102" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
         <v>382</v>
       </c>
@@ -3017,9 +3734,11 @@
       <c r="E103" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
         <v>382</v>
       </c>
@@ -3030,9 +3749,11 @@
       <c r="E104" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
         <v>382</v>
       </c>
@@ -3043,9 +3764,11 @@
       <c r="E105" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
         <v>382</v>
       </c>
@@ -3056,9 +3779,11 @@
       <c r="E106" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
         <v>382</v>
       </c>
@@ -3069,9 +3794,11 @@
       <c r="E107" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
         <v>382</v>
       </c>
@@ -3082,9 +3809,11 @@
       <c r="E108" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
         <v>382</v>
       </c>
@@ -3095,9 +3824,11 @@
       <c r="E109" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
         <v>382</v>
       </c>
@@ -3108,9 +3839,11 @@
       <c r="E110" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
         <v>382</v>
       </c>
@@ -3121,9 +3854,11 @@
       <c r="E111" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F111" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
         <v>382</v>
       </c>
@@ -3134,9 +3869,11 @@
       <c r="E112" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F112" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
         <v>382</v>
       </c>
@@ -3147,9 +3884,11 @@
       <c r="E113" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
         <v>382</v>
       </c>
@@ -3160,9 +3899,11 @@
       <c r="E114" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
         <v>382</v>
       </c>
@@ -3173,9 +3914,11 @@
       <c r="E115" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F115" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
         <v>382</v>
       </c>
@@ -3186,9 +3929,11 @@
       <c r="E116" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
         <v>382</v>
       </c>
@@ -3199,9 +3944,11 @@
       <c r="E117" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
         <v>382</v>
       </c>
@@ -3212,9 +3959,11 @@
       <c r="E118" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
         <v>382</v>
       </c>
@@ -3225,9 +3974,11 @@
       <c r="E119" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F119" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
         <v>382</v>
       </c>
@@ -3238,9 +3989,11 @@
       <c r="E120" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
         <v>382</v>
       </c>
@@ -3251,9 +4004,11 @@
       <c r="E121" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>382</v>
       </c>
@@ -3264,9 +4019,11 @@
       <c r="E122" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
         <v>382</v>
       </c>
@@ -3277,9 +4034,11 @@
       <c r="E123" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F123" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
         <v>382</v>
       </c>
@@ -3290,9 +4049,11 @@
       <c r="E124" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
         <v>382</v>
       </c>
@@ -3303,9 +4064,11 @@
       <c r="E125" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
         <v>382</v>
       </c>
@@ -3316,9 +4079,11 @@
       <c r="E126" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
         <v>382</v>
       </c>
@@ -3329,9 +4094,11 @@
       <c r="E127" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F127" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>382</v>
       </c>
@@ -3342,9 +4109,11 @@
       <c r="E128" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="1" t="s">
         <v>382</v>
       </c>
@@ -3355,9 +4124,11 @@
       <c r="E129" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F129" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
         <v>382</v>
       </c>
@@ -3368,9 +4139,11 @@
       <c r="E130" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>382</v>
       </c>
@@ -3381,9 +4154,11 @@
       <c r="E131" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F131" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
         <v>382</v>
       </c>
@@ -3394,9 +4169,11 @@
       <c r="E132" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
         <v>382</v>
       </c>
@@ -3407,9 +4184,11 @@
       <c r="E133" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F133" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
         <v>382</v>
       </c>
@@ -3420,9 +4199,11 @@
       <c r="E134" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>382</v>
       </c>
@@ -3433,9 +4214,11 @@
       <c r="E135" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F135" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
         <v>382</v>
       </c>
@@ -3446,9 +4229,11 @@
       <c r="E136" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>382</v>
       </c>
@@ -3459,9 +4244,11 @@
       <c r="E137" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
         <v>382</v>
       </c>
@@ -3472,9 +4259,11 @@
       <c r="E138" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
         <v>382</v>
       </c>
@@ -3485,9 +4274,11 @@
       <c r="E139" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F139" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
         <v>382</v>
       </c>
@@ -3498,9 +4289,11 @@
       <c r="E140" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
         <v>382</v>
       </c>
@@ -3511,9 +4304,11 @@
       <c r="E141" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="1" t="s">
         <v>382</v>
       </c>
@@ -3524,9 +4319,11 @@
       <c r="E142" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>382</v>
       </c>
@@ -3537,9 +4334,11 @@
       <c r="E143" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F143" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
         <v>382</v>
       </c>
@@ -3550,9 +4349,11 @@
       <c r="E144" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
         <v>382</v>
       </c>
@@ -3563,9 +4364,11 @@
       <c r="E145" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F145" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
         <v>382</v>
       </c>
@@ -3576,9 +4379,11 @@
       <c r="E146" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
         <v>382</v>
       </c>
@@ -3589,9 +4394,11 @@
       <c r="E147" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
         <v>382</v>
       </c>
@@ -3602,9 +4409,11 @@
       <c r="E148" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
         <v>382</v>
       </c>
@@ -3615,9 +4424,11 @@
       <c r="E149" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
         <v>382</v>
       </c>
@@ -3628,9 +4439,11 @@
       <c r="E150" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
         <v>382</v>
       </c>
@@ -3641,9 +4454,11 @@
       <c r="E151" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
         <v>382</v>
       </c>
@@ -3654,9 +4469,11 @@
       <c r="E152" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
         <v>382</v>
       </c>
@@ -3667,9 +4484,11 @@
       <c r="E153" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
         <v>382</v>
       </c>
@@ -3680,9 +4499,11 @@
       <c r="E154" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>382</v>
       </c>
@@ -3693,9 +4514,11 @@
       <c r="E155" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
         <v>382</v>
       </c>
@@ -3706,9 +4529,11 @@
       <c r="E156" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
         <v>382</v>
       </c>
@@ -3719,9 +4544,11 @@
       <c r="E157" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
         <v>382</v>
       </c>
@@ -3732,9 +4559,11 @@
       <c r="E158" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
         <v>382</v>
       </c>
@@ -3745,9 +4574,11 @@
       <c r="E159" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
         <v>382</v>
       </c>
@@ -3758,9 +4589,11 @@
       <c r="E160" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
         <v>382</v>
       </c>
@@ -3771,9 +4604,11 @@
       <c r="E161" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
         <v>382</v>
       </c>
@@ -3784,9 +4619,11 @@
       <c r="E162" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F162" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B163" s="1" t="s">
         <v>382</v>
       </c>
@@ -3797,9 +4634,11 @@
       <c r="E163" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F163" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
         <v>382</v>
       </c>
@@ -3810,9 +4649,11 @@
       <c r="E164" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
         <v>382</v>
       </c>
@@ -3823,9 +4664,11 @@
       <c r="E165" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
         <v>382</v>
       </c>
@@ -3836,9 +4679,11 @@
       <c r="E166" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>382</v>
       </c>
@@ -3849,9 +4694,11 @@
       <c r="E167" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="1" t="s">
         <v>382</v>
       </c>
@@ -3862,9 +4709,11 @@
       <c r="E168" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F168" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
         <v>382</v>
       </c>
@@ -3875,9 +4724,11 @@
       <c r="E169" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
         <v>382</v>
       </c>
@@ -3888,9 +4739,11 @@
       <c r="E170" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
         <v>382</v>
       </c>
@@ -3901,9 +4754,11 @@
       <c r="E171" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
         <v>382</v>
       </c>
@@ -3914,9 +4769,11 @@
       <c r="E172" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
         <v>382</v>
       </c>
@@ -3927,9 +4784,11 @@
       <c r="E173" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
         <v>382</v>
       </c>
@@ -3940,9 +4799,11 @@
       <c r="E174" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
         <v>382</v>
       </c>
@@ -3953,9 +4814,11 @@
       <c r="E175" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
         <v>382</v>
       </c>
@@ -3966,9 +4829,11 @@
       <c r="E176" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F176" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="177" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
         <v>382</v>
       </c>
@@ -3979,9 +4844,11 @@
       <c r="E177" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F177" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="178" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
         <v>382</v>
       </c>
@@ -3992,9 +4859,11 @@
       <c r="E178" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F178" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="179" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B179" s="1" t="s">
         <v>382</v>
       </c>
@@ -4005,9 +4874,11 @@
       <c r="E179" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F179" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
         <v>382</v>
       </c>
@@ -4018,9 +4889,11 @@
       <c r="E180" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F180" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="181" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B181" s="1" t="s">
         <v>382</v>
       </c>
@@ -4031,9 +4904,11 @@
       <c r="E181" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F181" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
         <v>382</v>
       </c>
@@ -4044,11 +4919,13 @@
       <c r="E182" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="N182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
         <v>382</v>
       </c>
@@ -4059,9 +4936,11 @@
       <c r="E183" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F183" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="184" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>382</v>
       </c>
@@ -4072,7 +4951,9 @@
       <c r="E184" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="H184" s="2"/>
       <c r="N184" s="2"/>
       <c r="P184" s="2"/>
@@ -4083,7 +4964,7 @@
       <c r="AD184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
         <v>382</v>
       </c>
@@ -4094,9 +4975,11 @@
       <c r="E185" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F185" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="186" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
         <v>382</v>
       </c>
@@ -4107,7 +4990,9 @@
       <c r="E186" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
       <c r="L186" s="2"/>
@@ -4123,7 +5008,7 @@
       <c r="AF186" s="2"/>
       <c r="AH186" s="2"/>
     </row>
-    <row r="187" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
         <v>382</v>
       </c>
@@ -4134,9 +5019,11 @@
       <c r="E187" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F187" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="188" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
         <v>382</v>
       </c>
@@ -4147,9 +5034,11 @@
       <c r="E188" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F188" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="189" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
         <v>382</v>
       </c>
@@ -4160,9 +5049,11 @@
       <c r="E189" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F189" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="190" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
         <v>382</v>
       </c>
@@ -4173,9 +5064,11 @@
       <c r="E190" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F190" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="191" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
         <v>382</v>
       </c>
@@ -4186,9 +5079,11 @@
       <c r="E191" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="F191" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="192" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>382</v>
       </c>
@@ -4199,9 +5094,11 @@
       <c r="E192" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F192" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="193" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>382</v>
       </c>
@@ -4212,9 +5109,11 @@
       <c r="E193" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F193" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="194" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
         <v>382</v>
       </c>
@@ -4225,9 +5124,11 @@
       <c r="E194" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F194" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="195" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
         <v>382</v>
       </c>
@@ -4238,9 +5139,11 @@
       <c r="E195" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F195" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="196" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
         <v>382</v>
       </c>
@@ -4251,9 +5154,11 @@
       <c r="E196" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F196" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="197" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>382</v>
       </c>
@@ -4264,9 +5169,11 @@
       <c r="E197" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F197" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="198" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
         <v>382</v>
       </c>
@@ -4277,9 +5184,11 @@
       <c r="E198" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F198" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="199" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>382</v>
       </c>
@@ -4290,9 +5199,11 @@
       <c r="E199" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F199" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="200" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
         <v>382</v>
       </c>
@@ -4303,7 +5214,9 @@
       <c r="E200" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="L200" s="2"/>
       <c r="N200" s="2"/>
       <c r="P200" s="2"/>
@@ -4311,7 +5224,7 @@
       <c r="X200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>382</v>
       </c>
@@ -4322,9 +5235,11 @@
       <c r="E201" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F201" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="202" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
         <v>382</v>
       </c>
@@ -4335,7 +5250,9 @@
       <c r="E202" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
       <c r="L202" s="2"/>
@@ -4348,7 +5265,7 @@
       <c r="Z202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
         <v>382</v>
       </c>
@@ -4359,9 +5276,11 @@
       <c r="E203" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F203" s="1"/>
-    </row>
-    <row r="229" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F203" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="229" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
@@ -4377,7 +5296,7 @@
       <c r="AF229" s="2"/>
       <c r="AH229" s="2"/>
     </row>
-    <row r="231" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
@@ -4394,7 +5313,7 @@
       <c r="AF231" s="2"/>
       <c r="AH231" s="2"/>
     </row>
-    <row r="233" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
@@ -4411,7 +5330,7 @@
       <c r="AF233" s="2"/>
       <c r="AH233" s="2"/>
     </row>
-    <row r="235" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
@@ -4423,7 +5342,7 @@
       <c r="AD235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="237" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
@@ -4439,7 +5358,7 @@
       <c r="AF237" s="2"/>
       <c r="AH237" s="2"/>
     </row>
-    <row r="243" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
@@ -4453,7 +5372,7 @@
       <c r="AD243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="273" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
@@ -4470,7 +5389,7 @@
       <c r="AF273" s="2"/>
       <c r="AH273" s="2"/>
     </row>
-    <row r="274" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
@@ -4487,35 +5406,35 @@
       <c r="AF274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row r="280" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:34" x14ac:dyDescent="0.3">
       <c r="N280" s="2"/>
       <c r="P280" s="2"/>
       <c r="V280" s="2"/>
       <c r="X280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:34" x14ac:dyDescent="0.3">
       <c r="N281" s="2"/>
       <c r="P281" s="2"/>
       <c r="V281" s="2"/>
       <c r="X281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="284" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:34" x14ac:dyDescent="0.3">
       <c r="N284" s="2"/>
       <c r="P284" s="2"/>
       <c r="V284" s="2"/>
       <c r="X284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="288" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:34" x14ac:dyDescent="0.3">
       <c r="N288" s="2"/>
       <c r="P288" s="2"/>
       <c r="V288" s="2"/>
       <c r="X288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="292" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:28" x14ac:dyDescent="0.3">
       <c r="F292" s="2"/>
       <c r="H292" s="2"/>
       <c r="J292" s="2"/>
@@ -4529,7 +5448,7 @@
       <c r="Z292" s="2"/>
       <c r="AB292" s="2"/>
     </row>
-    <row r="296" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:28" x14ac:dyDescent="0.3">
       <c r="L296" s="2"/>
       <c r="N296" s="2"/>
       <c r="P296" s="2"/>
@@ -4537,7 +5456,7 @@
       <c r="X296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="298" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:28" x14ac:dyDescent="0.3">
       <c r="F298" s="2"/>
       <c r="H298" s="2"/>
       <c r="J298" s="2"/>
@@ -4551,7 +5470,7 @@
       <c r="Z298" s="2"/>
       <c r="AB298" s="2"/>
     </row>
-    <row r="300" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:28" x14ac:dyDescent="0.3">
       <c r="F300" s="2"/>
       <c r="H300" s="2"/>
       <c r="J300" s="2"/>
@@ -4565,7 +5484,7 @@
       <c r="Z300" s="2"/>
       <c r="AB300" s="2"/>
     </row>
-    <row r="302" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:28" x14ac:dyDescent="0.3">
       <c r="L302" s="2"/>
       <c r="N302" s="2"/>
       <c r="P302" s="2"/>
@@ -4573,7 +5492,7 @@
       <c r="X302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="304" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:28" x14ac:dyDescent="0.3">
       <c r="F304" s="2"/>
       <c r="H304" s="2"/>
       <c r="L304" s="2"/>
@@ -4583,7 +5502,7 @@
       <c r="Z304" s="2"/>
       <c r="AB304" s="2"/>
     </row>
-    <row r="308" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F308" s="2"/>
       <c r="H308" s="2"/>
       <c r="L308" s="2"/>
@@ -4594,10 +5513,10 @@
       <c r="Z308" s="2"/>
       <c r="AB308" s="2"/>
     </row>
-    <row r="310" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:34" x14ac:dyDescent="0.3">
       <c r="P310" s="2"/>
     </row>
-    <row r="312" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F312" s="2"/>
       <c r="H312" s="2"/>
       <c r="J312" s="2"/>
@@ -4610,31 +5529,31 @@
       <c r="Z312" s="2"/>
       <c r="AB312" s="2"/>
     </row>
-    <row r="320" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:34" x14ac:dyDescent="0.3">
       <c r="L320" s="2"/>
       <c r="N320" s="2"/>
       <c r="P320" s="2"/>
       <c r="AH320" s="2"/>
     </row>
-    <row r="323" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:34" x14ac:dyDescent="0.3">
       <c r="L323" s="2"/>
       <c r="N323" s="2"/>
       <c r="P323" s="2"/>
       <c r="AH323" s="2"/>
     </row>
-    <row r="324" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:34" x14ac:dyDescent="0.3">
       <c r="L324" s="2"/>
       <c r="N324" s="2"/>
       <c r="P324" s="2"/>
       <c r="AH324" s="2"/>
     </row>
-    <row r="326" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:34" x14ac:dyDescent="0.3">
       <c r="L326" s="2"/>
       <c r="N326" s="2"/>
       <c r="P326" s="2"/>
       <c r="AH326" s="2"/>
     </row>
-    <row r="331" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F331" s="2"/>
       <c r="H331" s="2"/>
       <c r="J331" s="2"/>
@@ -4648,7 +5567,7 @@
       <c r="Z331" s="2"/>
       <c r="AB331" s="2"/>
     </row>
-    <row r="332" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F332" s="2"/>
       <c r="H332" s="2"/>
       <c r="J332" s="2"/>

--- a/ErgoLux/localization/Hungarian (hu-HU) translation.xlsx
+++ b/ErgoLux/localization/Hungarian (hu-HU) translation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocsi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\source\repos\ErgoLux\ErgoLux\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590AE1D-D85D-4BF0-B596-14226F60C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5428FC4-3D1A-45AD-8230-8151F95356F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
   <sheets>
     <sheet name="hu-HU" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="565">
   <si>
     <t>Key</t>
   </si>
@@ -1282,15 +1282,9 @@
     <t>Teljesítmény (dB)</t>
   </si>
   <si>
-    <t>Szeretnél minden mezőt visszaállítani az alapértelmezett értékeikre?</t>
-  </si>
-  <si>
     <t>Beállítások visszaállítása?</t>
   </si>
   <si>
-    <t>Hiba a beállítások fájl betöltése közben. {0} Az alapértelmezett értékek lesznek alkalmazva.</t>
-  </si>
-  <si>
     <t>Hiba</t>
   </si>
   <si>
@@ -1321,9 +1315,6 @@
     <t>Hiányzik egy üres vonal.</t>
   </si>
   <si>
-    <t>Hiányzanak az oszlop fejlécek (sorozatnevek)</t>
-  </si>
-  <si>
     <t>napok, nap, napok</t>
   </si>
   <si>
@@ -1456,24 +1447,15 @@
     <t>Leállási bitek</t>
   </si>
   <si>
-    <t>Nem sikerült felállítani az adat jellegzetességeket (adat bitek, leállási bitek, és paritás)</t>
-  </si>
-  <si>
     <t>Paritás</t>
   </si>
   <si>
-    <t>Nem sikerült beállítani a Baudrátát. Hiba: {0}</t>
-  </si>
-  <si>
     <t>Baudráta hiba</t>
   </si>
   <si>
     <t>Bitek hiba</t>
   </si>
   <si>
-    <t>Az eszköz be van zárva. Kérem, menjen a Beállításokhoz hogy megnyissa az eszközt.</t>
-  </si>
-  <si>
     <t>Eszközhiba</t>
   </si>
   <si>
@@ -1486,24 +1468,12 @@
     <t>Kísérlet az FTD2XX.DLL betöltésére innen:</t>
   </si>
   <si>
-    <t>Egy váratlan hiba lépett fel az adatfájl betöltése közben. Kérem próbálja újra később, vagy vegye fel a kapcsolatot a szoftverfejlesztővel. {0}</t>
-  </si>
-  <si>
     <t>Nem sikerült megnyitni az eszközt</t>
   </si>
   <si>
-    <t>Nem sikerült megnyitni az eszközt. Hiba: {0}</t>
-  </si>
-  <si>
     <t>Hiba az eszköz megnyitása közben</t>
   </si>
   <si>
-    <t>Egy váratlan hiba lépett fel az adatok lemezre való mentése közben. Kérem próbálja újra később, vagy vegye fel a kapcsolatot a szoftverfejlesztővel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiba a beállításfájl betöltése közben. {0} </t>
-  </si>
-  <si>
     <t>Kezdési idő</t>
   </si>
   <si>
@@ -1516,18 +1486,12 @@
     <t>Mintavételezési frekvencia</t>
   </si>
   <si>
-    <t>Ergonómiai mérő szoftvereszköz a Konica Minolta T10-A megvilágításmérőjére. Semmiféle kereskedelmi célú felhasználat nem megengedett. Vegye fel a kapcsolatot a készítővel több információért. Ha hasznosnak találja ezt a programot, kérjük fontolja meg a támogatást!</t>
-  </si>
-  <si>
     <t>Hiba a DLL betöltése közben</t>
   </si>
   <si>
     <t>Hiba az adatok betöltése közben</t>
   </si>
   <si>
-    <t>Biztos hogy ki szeretnél lépni az applikációból?</t>
-  </si>
-  <si>
     <t>Kilépés?</t>
   </si>
   <si>
@@ -1543,9 +1507,6 @@
     <t>Adatmentés</t>
   </si>
   <si>
-    <t>A Hausdorff-Besicovitch fraktáldimenzió számítása le lett állítva.</t>
-  </si>
-  <si>
     <t>Leállítás</t>
   </si>
   <si>
@@ -1576,15 +1537,9 @@
     <t>Radiáis mérőműszer</t>
   </si>
   <si>
-    <t>Nem sikerült leolvasni az adatokat ebből a fájlból. {0}</t>
-  </si>
-  <si>
     <t>Kultúranév hiba</t>
   </si>
   <si>
-    <t>A kultúra megkülönböztető stringnév érvénytelen. {0}</t>
-  </si>
-  <si>
     <t>Érvénytelen numerikus érték: {0}</t>
   </si>
   <si>
@@ -1690,12 +1645,6 @@
     <t>Adatokhoz való igazítás</t>
   </si>
   <si>
-    <t>&amp;Névjegy</t>
-  </si>
-  <si>
-    <t>Nem sikerült beállítani az áramlásszabályozást. Hiba: {0}</t>
-  </si>
-  <si>
     <t>Grafikon célkeresztjének mutatása</t>
   </si>
   <si>
@@ -1738,10 +1687,91 @@
     <t>Nincs olyan adat, ami menthető lenne.</t>
   </si>
   <si>
-    <t>Hiba történt az időtúllépések beállításában. Hiba: {0}</t>
-  </si>
-  <si>
     <t>Időtúllépési hiba</t>
+  </si>
+  <si>
+    <t>Ergonómiai mérő szoftvereszköz a Konica Minolta T10-A megvilágításmérőjére.
+Semmiféle kereskedelmi célú felhasználat nem megengedett. Vegye fel a kapcsolatot a készítővel több információért.
+Ha hasznosnak találja ezt a programot, kérjük fontolja meg a támogatást!</t>
+  </si>
+  <si>
+    <t>Hiba a beállítások fájl betöltése közben.
+{0}
+Az alapértelmezett értékek lesznek alkalmazva.</t>
+  </si>
+  <si>
+    <t>Nem sikerült felállítani az adat jellegzetességeket
+(adat bitek, leállási bitek, és paritás)
+Hiba:
+{0}</t>
+  </si>
+  <si>
+    <t>Nem sikerült beállítani a Baudrátát.
+Hiba:
+{0}</t>
+  </si>
+  <si>
+    <t>Az eszköz be van zárva. Kérem, menjen a Beállításokhoz
+hogy megnyissa az eszközt.</t>
+  </si>
+  <si>
+    <t>Nem sikerült beállítani az áramlásszabályozást.
+Hiba:
+{0}</t>
+  </si>
+  <si>
+    <t>Egy váratlan hiba lépett fel az adatfájl betöltése közben.
+Kérem próbálja újra később, vagy vegye fel a kapcsolatot a szoftverfejlesztővel.
+{0}</t>
+  </si>
+  <si>
+    <t>Nem sikerült megnyitni az eszközt.
+Hiba:
+{0}</t>
+  </si>
+  <si>
+    <t>Egy váratlan hiba lépett fel az adatok lemezre való mentése közben.
+Kérem próbálja újra később, vagy vegye fel a kapcsolatot a szoftverfejlesztővel.
+{0}</t>
+  </si>
+  <si>
+    <t>Hiba történt az időtúllépések beállításában.
+Hiba:
+{0}</t>
+  </si>
+  <si>
+    <t>Biztos hogy ki szeretnél lépni
+az applikációból?</t>
+  </si>
+  <si>
+    <t>Szeretnél minden mezőt visszaállítani
+az alapértelmezett értékeikre?</t>
+  </si>
+  <si>
+    <t>A Hausdorff-Besicovitch fraktáldimenzió
+számítása le lett állítva.</t>
+  </si>
+  <si>
+    <t>Nem sikerült leolvasni az adatokat ebből a fájlból.
+{0}</t>
+  </si>
+  <si>
+    <t>A kultúra megkülönböztető stringnév érvénytelen.
+{0}</t>
+  </si>
+  <si>
+    <t>Hiba a beállításfájl betöltése közben.
+{0}
+Az alapértelmezett értékek lesznek alkalmazva.</t>
+  </si>
+  <si>
+    <t>Hiányzanak az oszlop fejlécek (sorozatnevek).</t>
+  </si>
+  <si>
+    <t>&amp;Névjegy…</t>
+  </si>
+  <si>
+    <t>&amp;Beállítások…</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1832,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1854,7 +1884,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2152,33 +2182,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99272ECF-2233-463E-857F-E2B1C41A5F55}">
   <dimension ref="B2:AH332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C132" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="5" max="5" width="61.109375" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="61.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>380</v>
       </c>
@@ -2195,7 +2223,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>381</v>
       </c>
@@ -2209,10 +2237,10 @@
         <v>363</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>381</v>
       </c>
@@ -2226,10 +2254,10 @@
         <v>365</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>381</v>
       </c>
@@ -2246,7 +2274,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>381</v>
       </c>
@@ -2263,7 +2291,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>381</v>
       </c>
@@ -2277,10 +2305,10 @@
         <v>371</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>381</v>
       </c>
@@ -2297,7 +2325,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>381</v>
       </c>
@@ -2314,7 +2342,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>381</v>
       </c>
@@ -2331,7 +2359,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>381</v>
       </c>
@@ -2345,10 +2373,10 @@
         <v>379</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>382</v>
       </c>
@@ -2365,7 +2393,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>382</v>
       </c>
@@ -2382,7 +2410,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>382</v>
       </c>
@@ -2395,11 +2423,11 @@
       <c r="E14" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>382</v>
       </c>
@@ -2416,7 +2444,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>382</v>
       </c>
@@ -2433,7 +2461,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>382</v>
       </c>
@@ -2448,7 +2476,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>382</v>
       </c>
@@ -2463,7 +2491,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>382</v>
       </c>
@@ -2478,7 +2506,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>382</v>
       </c>
@@ -2493,7 +2521,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>382</v>
       </c>
@@ -2508,7 +2536,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>382</v>
       </c>
@@ -2523,7 +2551,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>382</v>
       </c>
@@ -2535,10 +2563,10 @@
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>382</v>
       </c>
@@ -2553,7 +2581,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>382</v>
       </c>
@@ -2568,7 +2596,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>382</v>
       </c>
@@ -2583,7 +2611,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>382</v>
       </c>
@@ -2595,10 +2623,10 @@
         <v>169</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>382</v>
       </c>
@@ -2610,10 +2638,10 @@
         <v>171</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>382</v>
       </c>
@@ -2625,10 +2653,10 @@
         <v>173</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>382</v>
       </c>
@@ -2640,10 +2668,10 @@
         <v>175</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>382</v>
       </c>
@@ -2658,7 +2686,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>382</v>
       </c>
@@ -2670,10 +2698,10 @@
         <v>24</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>382</v>
       </c>
@@ -2685,10 +2713,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>382</v>
       </c>
@@ -2700,10 +2728,10 @@
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>382</v>
       </c>
@@ -2715,10 +2743,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>382</v>
       </c>
@@ -2730,10 +2758,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>382</v>
       </c>
@@ -2745,10 +2773,10 @@
         <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>382</v>
       </c>
@@ -2760,10 +2788,10 @@
         <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>382</v>
       </c>
@@ -2775,10 +2803,10 @@
         <v>38</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>382</v>
       </c>
@@ -2790,10 +2818,10 @@
         <v>58</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>382</v>
       </c>
@@ -2805,10 +2833,10 @@
         <v>40</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>382</v>
       </c>
@@ -2820,10 +2848,10 @@
         <v>42</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>382</v>
       </c>
@@ -2835,10 +2863,10 @@
         <v>176</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>382</v>
       </c>
@@ -2853,7 +2881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>382</v>
       </c>
@@ -2865,10 +2893,10 @@
         <v>44</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>382</v>
       </c>
@@ -2883,7 +2911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>382</v>
       </c>
@@ -2895,10 +2923,10 @@
         <v>177</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>382</v>
       </c>
@@ -2913,7 +2941,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>382</v>
       </c>
@@ -2925,10 +2953,10 @@
         <v>179</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>382</v>
       </c>
@@ -2940,10 +2968,10 @@
         <v>44</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>382</v>
       </c>
@@ -2955,10 +2983,10 @@
         <v>180</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>382</v>
       </c>
@@ -2970,10 +2998,10 @@
         <v>60</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>382</v>
       </c>
@@ -2985,10 +3013,10 @@
         <v>62</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>382</v>
       </c>
@@ -3000,10 +3028,10 @@
         <v>384</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>382</v>
       </c>
@@ -3015,10 +3043,10 @@
         <v>385</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>382</v>
       </c>
@@ -3030,10 +3058,10 @@
         <v>386</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>382</v>
       </c>
@@ -3045,10 +3073,10 @@
         <v>387</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>382</v>
       </c>
@@ -3060,10 +3088,10 @@
         <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>382</v>
       </c>
@@ -3075,10 +3103,10 @@
         <v>388</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>382</v>
       </c>
@@ -3093,7 +3121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>382</v>
       </c>
@@ -3105,10 +3133,10 @@
         <v>69</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>382</v>
       </c>
@@ -3123,7 +3151,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>382</v>
       </c>
@@ -3135,10 +3163,10 @@
         <v>71</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>382</v>
       </c>
@@ -3150,10 +3178,10 @@
         <v>73</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>382</v>
       </c>
@@ -3165,10 +3193,10 @@
         <v>75</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>382</v>
       </c>
@@ -3183,7 +3211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>382</v>
       </c>
@@ -3195,10 +3223,10 @@
         <v>184</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>382</v>
       </c>
@@ -3210,10 +3238,10 @@
         <v>186</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>382</v>
       </c>
@@ -3225,10 +3253,10 @@
         <v>188</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>382</v>
       </c>
@@ -3240,10 +3268,10 @@
         <v>190</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>382</v>
       </c>
@@ -3255,10 +3283,10 @@
         <v>192</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>382</v>
       </c>
@@ -3270,10 +3298,10 @@
         <v>194</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>382</v>
       </c>
@@ -3285,10 +3313,10 @@
         <v>196</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>382</v>
       </c>
@@ -3300,10 +3328,10 @@
         <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>382</v>
       </c>
@@ -3315,10 +3343,10 @@
         <v>81</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>382</v>
       </c>
@@ -3330,10 +3358,10 @@
         <v>171</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>382</v>
       </c>
@@ -3345,10 +3373,10 @@
         <v>199</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>382</v>
       </c>
@@ -3360,10 +3388,10 @@
         <v>201</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>382</v>
       </c>
@@ -3375,10 +3403,10 @@
         <v>83</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>382</v>
       </c>
@@ -3390,10 +3418,10 @@
         <v>203</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>382</v>
       </c>
@@ -3405,10 +3433,10 @@
         <v>85</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>382</v>
       </c>
@@ -3420,10 +3448,10 @@
         <v>205</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>382</v>
       </c>
@@ -3435,10 +3463,10 @@
         <v>206</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>382</v>
       </c>
@@ -3450,10 +3478,10 @@
         <v>208</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>382</v>
       </c>
@@ -3465,10 +3493,10 @@
         <v>113</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>382</v>
       </c>
@@ -3480,10 +3508,10 @@
         <v>211</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>382</v>
       </c>
@@ -3495,10 +3523,10 @@
         <v>213</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>382</v>
       </c>
@@ -3510,10 +3538,10 @@
         <v>215</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>382</v>
       </c>
@@ -3525,10 +3553,10 @@
         <v>217</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>382</v>
       </c>
@@ -3540,10 +3568,10 @@
         <v>58</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>382</v>
       </c>
@@ -3555,10 +3583,10 @@
         <v>88</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>382</v>
       </c>
@@ -3570,10 +3598,10 @@
         <v>90</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>382</v>
       </c>
@@ -3585,10 +3613,10 @@
         <v>220</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>382</v>
       </c>
@@ -3600,10 +3628,10 @@
         <v>92</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>382</v>
       </c>
@@ -3615,10 +3643,10 @@
         <v>222</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>382</v>
       </c>
@@ -3630,10 +3658,10 @@
         <v>224</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>382</v>
       </c>
@@ -3645,10 +3673,10 @@
         <v>226</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>382</v>
       </c>
@@ -3660,10 +3688,10 @@
         <v>228</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>382</v>
       </c>
@@ -3675,10 +3703,10 @@
         <v>230</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>382</v>
       </c>
@@ -3690,10 +3718,10 @@
         <v>232</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>382</v>
       </c>
@@ -3705,10 +3733,10 @@
         <v>234</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>382</v>
       </c>
@@ -3720,10 +3748,10 @@
         <v>236</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>382</v>
       </c>
@@ -3735,10 +3763,10 @@
         <v>238</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>382</v>
       </c>
@@ -3750,10 +3778,10 @@
         <v>240</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>382</v>
       </c>
@@ -3765,10 +3793,10 @@
         <v>242</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>382</v>
       </c>
@@ -3780,10 +3808,10 @@
         <v>244</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>382</v>
       </c>
@@ -3795,10 +3823,10 @@
         <v>246</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>382</v>
       </c>
@@ -3810,10 +3838,10 @@
         <v>248</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>382</v>
       </c>
@@ -3825,10 +3853,10 @@
         <v>250</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>382</v>
       </c>
@@ -3840,10 +3868,10 @@
         <v>252</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>382</v>
       </c>
@@ -3855,10 +3883,10 @@
         <v>254</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>382</v>
       </c>
@@ -3870,10 +3898,10 @@
         <v>256</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>382</v>
       </c>
@@ -3885,10 +3913,10 @@
         <v>258</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>382</v>
       </c>
@@ -3900,10 +3928,10 @@
         <v>260</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>382</v>
       </c>
@@ -3915,10 +3943,10 @@
         <v>262</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>382</v>
       </c>
@@ -3930,10 +3958,10 @@
         <v>264</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>382</v>
       </c>
@@ -3945,10 +3973,10 @@
         <v>266</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>382</v>
       </c>
@@ -3960,10 +3988,10 @@
         <v>268</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>382</v>
       </c>
@@ -3975,10 +4003,10 @@
         <v>270</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>382</v>
       </c>
@@ -3990,10 +4018,10 @@
         <v>272</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>382</v>
       </c>
@@ -4005,10 +4033,10 @@
         <v>274</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>382</v>
       </c>
@@ -4020,10 +4048,10 @@
         <v>276</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>382</v>
       </c>
@@ -4035,10 +4063,10 @@
         <v>278</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>382</v>
       </c>
@@ -4050,10 +4078,10 @@
         <v>94</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>382</v>
       </c>
@@ -4065,10 +4093,10 @@
         <v>96</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>382</v>
       </c>
@@ -4080,10 +4108,10 @@
         <v>280</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>382</v>
       </c>
@@ -4095,10 +4123,10 @@
         <v>30</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>382</v>
       </c>
@@ -4110,10 +4138,10 @@
         <v>283</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>382</v>
       </c>
@@ -4125,10 +4153,10 @@
         <v>285</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>382</v>
       </c>
@@ -4140,10 +4168,10 @@
         <v>286</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>382</v>
       </c>
@@ -4155,10 +4183,10 @@
         <v>99</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>382</v>
       </c>
@@ -4170,10 +4198,10 @@
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>382</v>
       </c>
@@ -4185,10 +4213,10 @@
         <v>30</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>382</v>
       </c>
@@ -4200,10 +4228,10 @@
         <v>290</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>382</v>
       </c>
@@ -4215,10 +4243,10 @@
         <v>292</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>382</v>
       </c>
@@ -4230,10 +4258,10 @@
         <v>101</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>382</v>
       </c>
@@ -4245,10 +4273,10 @@
         <v>103</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>382</v>
       </c>
@@ -4260,10 +4288,10 @@
         <v>105</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>382</v>
       </c>
@@ -4275,10 +4303,10 @@
         <v>107</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>382</v>
       </c>
@@ -4290,10 +4318,10 @@
         <v>24</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>382</v>
       </c>
@@ -4305,10 +4333,10 @@
         <v>295</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>382</v>
       </c>
@@ -4320,10 +4348,10 @@
         <v>108</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>382</v>
       </c>
@@ -4335,10 +4363,10 @@
         <v>298</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>382</v>
       </c>
@@ -4350,10 +4378,10 @@
         <v>109</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>382</v>
       </c>
@@ -4365,10 +4393,10 @@
         <v>301</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>382</v>
       </c>
@@ -4380,10 +4408,10 @@
         <v>322</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>382</v>
       </c>
@@ -4395,10 +4423,10 @@
         <v>302</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>382</v>
       </c>
@@ -4410,10 +4438,10 @@
         <v>304</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>382</v>
       </c>
@@ -4425,10 +4453,10 @@
         <v>112</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>382</v>
       </c>
@@ -4443,7 +4471,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>382</v>
       </c>
@@ -4455,10 +4483,10 @@
         <v>309</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>382</v>
       </c>
@@ -4470,10 +4498,10 @@
         <v>311</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>382</v>
       </c>
@@ -4485,10 +4513,10 @@
         <v>112</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>382</v>
       </c>
@@ -4500,10 +4528,10 @@
         <v>314</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>382</v>
       </c>
@@ -4515,10 +4543,10 @@
         <v>180</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>382</v>
       </c>
@@ -4530,10 +4558,10 @@
         <v>112</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>382</v>
       </c>
@@ -4548,7 +4576,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>382</v>
       </c>
@@ -4560,10 +4588,10 @@
         <v>115</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>382</v>
       </c>
@@ -4575,10 +4603,10 @@
         <v>117</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>382</v>
       </c>
@@ -4593,7 +4621,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>382</v>
       </c>
@@ -4605,10 +4633,10 @@
         <v>321</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>382</v>
       </c>
@@ -4620,10 +4648,10 @@
         <v>71</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>382</v>
       </c>
@@ -4635,10 +4663,10 @@
         <v>120</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>382</v>
       </c>
@@ -4650,10 +4678,10 @@
         <v>122</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>382</v>
       </c>
@@ -4665,10 +4693,10 @@
         <v>124</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>382</v>
       </c>
@@ -4680,10 +4708,10 @@
         <v>126</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>382</v>
       </c>
@@ -4695,10 +4723,10 @@
         <v>128</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>382</v>
       </c>
@@ -4710,10 +4738,10 @@
         <v>96</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>382</v>
       </c>
@@ -4725,10 +4753,10 @@
         <v>322</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>382</v>
       </c>
@@ -4740,10 +4768,10 @@
         <v>323</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>382</v>
       </c>
@@ -4755,10 +4783,10 @@
         <v>325</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>382</v>
       </c>
@@ -4770,10 +4798,10 @@
         <v>327</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>382</v>
       </c>
@@ -4785,10 +4813,10 @@
         <v>192</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>382</v>
       </c>
@@ -4800,10 +4828,10 @@
         <v>330</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>382</v>
       </c>
@@ -4815,10 +4843,10 @@
         <v>133</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>382</v>
       </c>
@@ -4830,10 +4858,10 @@
         <v>171</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="177" spans="2:34" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="177" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>382</v>
       </c>
@@ -4845,10 +4873,10 @@
         <v>333</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="178" spans="2:34" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="178" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>382</v>
       </c>
@@ -4860,10 +4888,10 @@
         <v>327</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="179" spans="2:34" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="179" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>382</v>
       </c>
@@ -4875,10 +4903,10 @@
         <v>336</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="180" spans="2:34" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="180" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>382</v>
       </c>
@@ -4890,10 +4918,10 @@
         <v>338</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="181" spans="2:34" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="181" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>382</v>
       </c>
@@ -4905,10 +4933,10 @@
         <v>340</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="182" spans="2:34" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="182" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>382</v>
       </c>
@@ -4920,12 +4948,12 @@
         <v>173</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="N182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>382</v>
       </c>
@@ -4937,10 +4965,10 @@
         <v>175</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="184" spans="2:34" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>382</v>
       </c>
@@ -4952,7 +4980,7 @@
         <v>344</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="H184" s="2"/>
       <c r="N184" s="2"/>
@@ -4964,7 +4992,7 @@
       <c r="AD184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>382</v>
       </c>
@@ -4976,10 +5004,10 @@
         <v>344</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="186" spans="2:34" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="186" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>382</v>
       </c>
@@ -4991,7 +5019,7 @@
         <v>347</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
@@ -5008,7 +5036,7 @@
       <c r="AF186" s="2"/>
       <c r="AH186" s="2"/>
     </row>
-    <row r="187" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>382</v>
       </c>
@@ -5020,10 +5048,10 @@
         <v>135</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="188" spans="2:34" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="188" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>382</v>
       </c>
@@ -5035,10 +5063,10 @@
         <v>349</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="189" spans="2:34" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="189" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>382</v>
       </c>
@@ -5050,10 +5078,10 @@
         <v>137</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="190" spans="2:34" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>382</v>
       </c>
@@ -5065,10 +5093,10 @@
         <v>351</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="191" spans="2:34" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="191" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>382</v>
       </c>
@@ -5080,10 +5108,10 @@
         <v>353</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="192" spans="2:34" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="192" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>382</v>
       </c>
@@ -5095,10 +5123,10 @@
         <v>139</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="193" spans="2:28" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="193" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>382</v>
       </c>
@@ -5110,10 +5138,10 @@
         <v>141</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="194" spans="2:28" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="194" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>382</v>
       </c>
@@ -5125,10 +5153,10 @@
         <v>355</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="195" spans="2:28" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="195" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>382</v>
       </c>
@@ -5140,10 +5168,10 @@
         <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="196" spans="2:28" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="196" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>382</v>
       </c>
@@ -5155,10 +5183,10 @@
         <v>144</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="197" spans="2:28" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="197" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>382</v>
       </c>
@@ -5170,10 +5198,10 @@
         <v>357</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="198" spans="2:28" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="198" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>382</v>
       </c>
@@ -5185,10 +5213,10 @@
         <v>359</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="199" spans="2:28" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="199" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>382</v>
       </c>
@@ -5200,10 +5228,10 @@
         <v>146</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="200" spans="2:28" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="200" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>382</v>
       </c>
@@ -5215,7 +5243,7 @@
         <v>148</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="L200" s="2"/>
       <c r="N200" s="2"/>
@@ -5224,7 +5252,7 @@
       <c r="X200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>382</v>
       </c>
@@ -5236,10 +5264,10 @@
         <v>361</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="202" spans="2:28" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="202" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>382</v>
       </c>
@@ -5251,7 +5279,7 @@
         <v>150</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
@@ -5265,7 +5293,7 @@
       <c r="Z202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>382</v>
       </c>
@@ -5277,10 +5305,10 @@
         <v>152</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="229" spans="6:34" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="229" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
@@ -5296,7 +5324,7 @@
       <c r="AF229" s="2"/>
       <c r="AH229" s="2"/>
     </row>
-    <row r="231" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
@@ -5313,7 +5341,7 @@
       <c r="AF231" s="2"/>
       <c r="AH231" s="2"/>
     </row>
-    <row r="233" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
@@ -5330,7 +5358,7 @@
       <c r="AF233" s="2"/>
       <c r="AH233" s="2"/>
     </row>
-    <row r="235" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
@@ -5342,7 +5370,7 @@
       <c r="AD235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="237" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
@@ -5358,7 +5386,7 @@
       <c r="AF237" s="2"/>
       <c r="AH237" s="2"/>
     </row>
-    <row r="243" spans="6:32" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:32" x14ac:dyDescent="0.25">
       <c r="F243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
@@ -5372,7 +5400,7 @@
       <c r="AD243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="273" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="273" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
@@ -5389,7 +5417,7 @@
       <c r="AF273" s="2"/>
       <c r="AH273" s="2"/>
     </row>
-    <row r="274" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="274" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
@@ -5406,35 +5434,35 @@
       <c r="AF274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row r="280" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="280" spans="6:34" x14ac:dyDescent="0.25">
       <c r="N280" s="2"/>
       <c r="P280" s="2"/>
       <c r="V280" s="2"/>
       <c r="X280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="281" spans="6:34" x14ac:dyDescent="0.25">
       <c r="N281" s="2"/>
       <c r="P281" s="2"/>
       <c r="V281" s="2"/>
       <c r="X281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="284" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="284" spans="6:34" x14ac:dyDescent="0.25">
       <c r="N284" s="2"/>
       <c r="P284" s="2"/>
       <c r="V284" s="2"/>
       <c r="X284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="288" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="288" spans="6:34" x14ac:dyDescent="0.25">
       <c r="N288" s="2"/>
       <c r="P288" s="2"/>
       <c r="V288" s="2"/>
       <c r="X288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="292" spans="6:28" x14ac:dyDescent="0.3">
+    <row r="292" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F292" s="2"/>
       <c r="H292" s="2"/>
       <c r="J292" s="2"/>
@@ -5448,7 +5476,7 @@
       <c r="Z292" s="2"/>
       <c r="AB292" s="2"/>
     </row>
-    <row r="296" spans="6:28" x14ac:dyDescent="0.3">
+    <row r="296" spans="6:28" x14ac:dyDescent="0.25">
       <c r="L296" s="2"/>
       <c r="N296" s="2"/>
       <c r="P296" s="2"/>
@@ -5456,7 +5484,7 @@
       <c r="X296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="298" spans="6:28" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F298" s="2"/>
       <c r="H298" s="2"/>
       <c r="J298" s="2"/>
@@ -5470,7 +5498,7 @@
       <c r="Z298" s="2"/>
       <c r="AB298" s="2"/>
     </row>
-    <row r="300" spans="6:28" x14ac:dyDescent="0.3">
+    <row r="300" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F300" s="2"/>
       <c r="H300" s="2"/>
       <c r="J300" s="2"/>
@@ -5484,7 +5512,7 @@
       <c r="Z300" s="2"/>
       <c r="AB300" s="2"/>
     </row>
-    <row r="302" spans="6:28" x14ac:dyDescent="0.3">
+    <row r="302" spans="6:28" x14ac:dyDescent="0.25">
       <c r="L302" s="2"/>
       <c r="N302" s="2"/>
       <c r="P302" s="2"/>
@@ -5492,7 +5520,7 @@
       <c r="X302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="304" spans="6:28" x14ac:dyDescent="0.3">
+    <row r="304" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F304" s="2"/>
       <c r="H304" s="2"/>
       <c r="L304" s="2"/>
@@ -5502,7 +5530,7 @@
       <c r="Z304" s="2"/>
       <c r="AB304" s="2"/>
     </row>
-    <row r="308" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="308" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F308" s="2"/>
       <c r="H308" s="2"/>
       <c r="L308" s="2"/>
@@ -5513,10 +5541,10 @@
       <c r="Z308" s="2"/>
       <c r="AB308" s="2"/>
     </row>
-    <row r="310" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="310" spans="6:34" x14ac:dyDescent="0.25">
       <c r="P310" s="2"/>
     </row>
-    <row r="312" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="312" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F312" s="2"/>
       <c r="H312" s="2"/>
       <c r="J312" s="2"/>
@@ -5529,31 +5557,31 @@
       <c r="Z312" s="2"/>
       <c r="AB312" s="2"/>
     </row>
-    <row r="320" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="320" spans="6:34" x14ac:dyDescent="0.25">
       <c r="L320" s="2"/>
       <c r="N320" s="2"/>
       <c r="P320" s="2"/>
       <c r="AH320" s="2"/>
     </row>
-    <row r="323" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="323" spans="6:34" x14ac:dyDescent="0.25">
       <c r="L323" s="2"/>
       <c r="N323" s="2"/>
       <c r="P323" s="2"/>
       <c r="AH323" s="2"/>
     </row>
-    <row r="324" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="324" spans="6:34" x14ac:dyDescent="0.25">
       <c r="L324" s="2"/>
       <c r="N324" s="2"/>
       <c r="P324" s="2"/>
       <c r="AH324" s="2"/>
     </row>
-    <row r="326" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="326" spans="6:34" x14ac:dyDescent="0.25">
       <c r="L326" s="2"/>
       <c r="N326" s="2"/>
       <c r="P326" s="2"/>
       <c r="AH326" s="2"/>
     </row>
-    <row r="331" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="331" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F331" s="2"/>
       <c r="H331" s="2"/>
       <c r="J331" s="2"/>
@@ -5567,7 +5595,7 @@
       <c r="Z331" s="2"/>
       <c r="AB331" s="2"/>
     </row>
-    <row r="332" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="332" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F332" s="2"/>
       <c r="H332" s="2"/>
       <c r="J332" s="2"/>

--- a/ErgoLux/localization/Hungarian (hu-HU) translation.xlsx
+++ b/ErgoLux/localization/Hungarian (hu-HU) translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\source\repos\ErgoLux\ErgoLux\localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\ErgoLux\ErgoLux\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5428FC4-3D1A-45AD-8230-8151F95356F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21645F4-904F-435A-8C2A-46318B909C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
   <sheets>
     <sheet name="hu-HU" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="568">
   <si>
     <t>Key</t>
   </si>
@@ -1772,6 +1772,15 @@
   </si>
   <si>
     <t>&amp;Beállítások…</t>
+  </si>
+  <si>
+    <t>strWindowPos</t>
+  </si>
+  <si>
+    <t>In "settings" form, tab "User interface"</t>
+  </si>
+  <si>
+    <t>Remember window position and size on startup</t>
   </si>
 </sst>
 </file>
@@ -1867,10 +1876,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:F203" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="B2:F203" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F169">
-    <sortCondition ref="C2:C169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:F204" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="B2:F204" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F170">
+    <sortCondition ref="C2:C170"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{EF2DE2BA-CD47-4AD4-ACE0-011CE073E5C4}" name="File" dataDxfId="4"/>
@@ -2180,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99272ECF-2233-463E-857F-E2B1C41A5F55}">
-  <dimension ref="B2:AH332"/>
+  <dimension ref="B2:AH333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2188,7 +2197,7 @@
   <cols>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="61.140625" customWidth="1"/>
     <col min="6" max="6" width="60.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
@@ -2588,7 +2597,9 @@
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>566</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>19</v>
       </c>
@@ -2686,64 +2697,64 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>411</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -2751,14 +2762,14 @@
         <v>382</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -2766,14 +2777,14 @@
         <v>382</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -2781,14 +2792,14 @@
         <v>382</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -2796,14 +2807,14 @@
         <v>382</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -2811,14 +2822,14 @@
         <v>382</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -2826,14 +2837,14 @@
         <v>382</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -2841,14 +2852,14 @@
         <v>382</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>477</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -2856,14 +2867,14 @@
         <v>382</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -2871,14 +2882,14 @@
         <v>382</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>46</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -2886,14 +2897,14 @@
         <v>382</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>416</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -2901,14 +2912,14 @@
         <v>382</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -2916,14 +2927,14 @@
         <v>382</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>417</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -2931,14 +2942,14 @@
         <v>382</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>178</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -2946,14 +2957,14 @@
         <v>382</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>418</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -2961,14 +2972,14 @@
         <v>382</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -2976,14 +2987,14 @@
         <v>382</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -2991,14 +3002,14 @@
         <v>382</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -3006,14 +3017,14 @@
         <v>382</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -3021,14 +3032,14 @@
         <v>382</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>384</v>
+        <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>421</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -3036,14 +3047,14 @@
         <v>382</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -3051,14 +3062,14 @@
         <v>382</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -3066,14 +3077,14 @@
         <v>382</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -3081,14 +3092,14 @@
         <v>382</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>67</v>
+        <v>387</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -3096,14 +3107,14 @@
         <v>382</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>535</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -3111,14 +3122,14 @@
         <v>382</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>155</v>
+        <v>388</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>156</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -3126,14 +3137,14 @@
         <v>382</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>426</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -3141,14 +3152,14 @@
         <v>382</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>182</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -3156,14 +3167,14 @@
         <v>382</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>427</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -3171,14 +3182,14 @@
         <v>382</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -3186,14 +3197,14 @@
         <v>382</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -3201,14 +3212,14 @@
         <v>382</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -3216,14 +3227,14 @@
         <v>382</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>430</v>
+        <v>77</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -3231,14 +3242,14 @@
         <v>382</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -3246,14 +3257,14 @@
         <v>382</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -3261,14 +3272,14 @@
         <v>382</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -3276,14 +3287,14 @@
         <v>382</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -3291,14 +3302,14 @@
         <v>382</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -3306,14 +3317,14 @@
         <v>382</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -3321,14 +3332,14 @@
         <v>382</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -3336,14 +3347,14 @@
         <v>382</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -3351,14 +3362,14 @@
         <v>382</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>527</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -3366,14 +3377,14 @@
         <v>382</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>437</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -3381,14 +3392,14 @@
         <v>382</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -3396,14 +3407,14 @@
         <v>382</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
@@ -3411,14 +3422,14 @@
         <v>382</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -3426,14 +3437,14 @@
         <v>382</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
@@ -3441,14 +3452,14 @@
         <v>382</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -3456,14 +3467,14 @@
         <v>382</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
@@ -3471,14 +3482,14 @@
         <v>382</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
@@ -3486,14 +3497,14 @@
         <v>382</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
@@ -3501,14 +3512,14 @@
         <v>382</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
@@ -3516,14 +3527,14 @@
         <v>382</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
@@ -3531,14 +3542,14 @@
         <v>382</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
@@ -3546,14 +3557,14 @@
         <v>382</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
@@ -3561,14 +3572,14 @@
         <v>382</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>413</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
@@ -3576,14 +3587,14 @@
         <v>382</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
@@ -3591,14 +3602,14 @@
         <v>382</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
@@ -3606,14 +3617,14 @@
         <v>382</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
@@ -3621,14 +3632,14 @@
         <v>382</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
@@ -3636,14 +3647,14 @@
         <v>382</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
@@ -3651,14 +3662,14 @@
         <v>382</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>450</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
@@ -3666,14 +3677,14 @@
         <v>382</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
@@ -3681,14 +3692,14 @@
         <v>382</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
@@ -3696,14 +3707,14 @@
         <v>382</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>563</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -3711,14 +3722,14 @@
         <v>382</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>453</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
@@ -3726,14 +3737,14 @@
         <v>382</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
@@ -3741,14 +3752,14 @@
         <v>382</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
@@ -3756,14 +3767,14 @@
         <v>382</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
@@ -3771,14 +3782,14 @@
         <v>382</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>564</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
@@ -3786,14 +3797,14 @@
         <v>382</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
@@ -3801,14 +3812,14 @@
         <v>382</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
@@ -3816,14 +3827,14 @@
         <v>382</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
@@ -3831,14 +3842,14 @@
         <v>382</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
@@ -3846,14 +3857,14 @@
         <v>382</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
@@ -3861,14 +3872,14 @@
         <v>382</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
@@ -3876,59 +3887,59 @@
         <v>382</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>466</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
@@ -3936,104 +3947,104 @@
         <v>382</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
@@ -4041,14 +4052,14 @@
         <v>382</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
@@ -4056,44 +4067,44 @@
         <v>382</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
@@ -4101,14 +4112,14 @@
         <v>382</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>280</v>
+        <v>96</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
@@ -4116,164 +4127,164 @@
         <v>382</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
@@ -4281,14 +4292,14 @@
         <v>382</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>544</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
@@ -4296,44 +4307,44 @@
         <v>382</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
@@ -4341,14 +4352,14 @@
         <v>382</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
@@ -4356,74 +4367,74 @@
         <v>382</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
@@ -4431,14 +4442,14 @@
         <v>382</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
@@ -4446,14 +4457,14 @@
         <v>382</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
@@ -4461,14 +4472,14 @@
         <v>382</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>307</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
@@ -4476,14 +4487,14 @@
         <v>382</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>489</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
@@ -4491,14 +4502,14 @@
         <v>382</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
@@ -4506,14 +4517,14 @@
         <v>382</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
@@ -4521,14 +4532,14 @@
         <v>382</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>314</v>
+        <v>112</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
@@ -4536,14 +4547,14 @@
         <v>382</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>419</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
@@ -4551,14 +4562,14 @@
         <v>382</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
@@ -4566,14 +4577,14 @@
         <v>382</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>307</v>
+        <v>488</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
@@ -4581,14 +4592,14 @@
         <v>382</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>492</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
@@ -4596,14 +4607,14 @@
         <v>382</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
@@ -4611,14 +4622,14 @@
         <v>382</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>319</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
@@ -4626,14 +4637,14 @@
         <v>382</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>494</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
@@ -4641,29 +4652,29 @@
         <v>382</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>118</v>
+        <v>320</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>559</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -4671,29 +4682,29 @@
         <v>382</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
@@ -4701,14 +4712,14 @@
         <v>382</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
@@ -4716,14 +4727,14 @@
         <v>382</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
@@ -4731,44 +4742,44 @@
         <v>382</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
@@ -4776,14 +4787,14 @@
         <v>382</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
@@ -4791,14 +4802,14 @@
         <v>382</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
@@ -4806,14 +4817,14 @@
         <v>382</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
@@ -4821,14 +4832,14 @@
         <v>382</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
@@ -4836,14 +4847,14 @@
         <v>382</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
@@ -4851,14 +4862,14 @@
         <v>382</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>331</v>
+        <v>132</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177" spans="2:34" x14ac:dyDescent="0.25">
@@ -4866,14 +4877,14 @@
         <v>382</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="178" spans="2:34" x14ac:dyDescent="0.25">
@@ -4881,14 +4892,14 @@
         <v>382</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="2:34" x14ac:dyDescent="0.25">
@@ -4896,14 +4907,14 @@
         <v>382</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="2:34" x14ac:dyDescent="0.25">
@@ -4911,14 +4922,14 @@
         <v>382</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="181" spans="2:34" x14ac:dyDescent="0.25">
@@ -4926,14 +4937,14 @@
         <v>382</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
     </row>
     <row r="182" spans="2:34" x14ac:dyDescent="0.25">
@@ -4941,63 +4952,54 @@
         <v>382</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="P182" s="2"/>
+        <v>522</v>
+      </c>
     </row>
     <row r="183" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>534</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N183" s="2"/>
+      <c r="P183" s="2"/>
     </row>
     <row r="184" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>344</v>
+        <v>175</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="V184" s="2"/>
-      <c r="X184" s="2"/>
-      <c r="Z184" s="2"/>
-      <c r="AB184" s="2"/>
-      <c r="AD184" s="2"/>
-      <c r="AF184" s="2"/>
+        <v>534</v>
+      </c>
     </row>
     <row r="185" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
@@ -5006,64 +5008,73 @@
       <c r="F185" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="H185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="X185" s="2"/>
+      <c r="Z185" s="2"/>
+      <c r="AB185" s="2"/>
+      <c r="AD185" s="2"/>
+      <c r="AF185" s="2"/>
     </row>
     <row r="186" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="R186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="X186" s="2"/>
-      <c r="Z186" s="2"/>
-      <c r="AB186" s="2"/>
-      <c r="AD186" s="2"/>
-      <c r="AF186" s="2"/>
-      <c r="AH186" s="2"/>
+        <v>521</v>
+      </c>
     </row>
     <row r="187" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>135</v>
+        <v>347</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>519</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="H187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="V187" s="2"/>
+      <c r="X187" s="2"/>
+      <c r="Z187" s="2"/>
+      <c r="AB187" s="2"/>
+      <c r="AD187" s="2"/>
+      <c r="AF187" s="2"/>
+      <c r="AH187" s="2"/>
     </row>
     <row r="188" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>349</v>
+        <v>135</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="189" spans="2:34" x14ac:dyDescent="0.25">
@@ -5071,14 +5082,14 @@
         <v>382</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="2:34" x14ac:dyDescent="0.25">
@@ -5086,14 +5097,14 @@
         <v>382</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="191" spans="2:34" x14ac:dyDescent="0.25">
@@ -5101,14 +5112,14 @@
         <v>382</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="2:34" x14ac:dyDescent="0.25">
@@ -5116,14 +5127,14 @@
         <v>382</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="193" spans="2:28" x14ac:dyDescent="0.25">
@@ -5131,14 +5142,14 @@
         <v>382</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="194" spans="2:28" x14ac:dyDescent="0.25">
@@ -5146,14 +5157,14 @@
         <v>382</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>354</v>
+        <v>140</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="195" spans="2:28" x14ac:dyDescent="0.25">
@@ -5161,14 +5172,14 @@
         <v>382</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>142</v>
+        <v>354</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>428</v>
+        <v>514</v>
       </c>
     </row>
     <row r="196" spans="2:28" x14ac:dyDescent="0.25">
@@ -5176,14 +5187,14 @@
         <v>382</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>513</v>
+        <v>428</v>
       </c>
     </row>
     <row r="197" spans="2:28" x14ac:dyDescent="0.25">
@@ -5191,14 +5202,14 @@
         <v>382</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>356</v>
+        <v>143</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>357</v>
+        <v>144</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="198" spans="2:28" x14ac:dyDescent="0.25">
@@ -5206,14 +5217,14 @@
         <v>382</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" spans="2:28" x14ac:dyDescent="0.25">
@@ -5221,14 +5232,14 @@
         <v>382</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="2:28" x14ac:dyDescent="0.25">
@@ -5236,186 +5247,184 @@
         <v>382</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="X200" s="2"/>
-      <c r="Z200" s="2"/>
+        <v>508</v>
+      </c>
     </row>
     <row r="201" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>506</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="L201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="V201" s="2"/>
+      <c r="X201" s="2"/>
+      <c r="Z201" s="2"/>
     </row>
     <row r="202" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H202" s="2"/>
-      <c r="J202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="V202" s="2"/>
-      <c r="X202" s="2"/>
-      <c r="Z202" s="2"/>
-      <c r="AB202" s="2"/>
+        <v>506</v>
+      </c>
     </row>
     <row r="203" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="V203" s="2"/>
+      <c r="X203" s="2"/>
+      <c r="Z203" s="2"/>
+      <c r="AB203" s="2"/>
+    </row>
+    <row r="204" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="229" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="X229" s="2"/>
-      <c r="Z229" s="2"/>
-      <c r="AB229" s="2"/>
-      <c r="AD229" s="2"/>
-      <c r="AF229" s="2"/>
-      <c r="AH229" s="2"/>
-    </row>
-    <row r="231" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="V231" s="2"/>
-      <c r="X231" s="2"/>
-      <c r="Z231" s="2"/>
-      <c r="AB231" s="2"/>
-      <c r="AD231" s="2"/>
-      <c r="AF231" s="2"/>
-      <c r="AH231" s="2"/>
-    </row>
-    <row r="233" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="X233" s="2"/>
-      <c r="Z233" s="2"/>
-      <c r="AB233" s="2"/>
-      <c r="AD233" s="2"/>
-      <c r="AF233" s="2"/>
-      <c r="AH233" s="2"/>
-    </row>
-    <row r="235" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="X235" s="2"/>
-      <c r="AB235" s="2"/>
-      <c r="AD235" s="2"/>
-      <c r="AF235" s="2"/>
-    </row>
-    <row r="237" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="X237" s="2"/>
-      <c r="Z237" s="2"/>
-      <c r="AB237" s="2"/>
-      <c r="AD237" s="2"/>
-      <c r="AF237" s="2"/>
-      <c r="AH237" s="2"/>
-    </row>
-    <row r="243" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="V243" s="2"/>
-      <c r="X243" s="2"/>
-      <c r="Z243" s="2"/>
-      <c r="AB243" s="2"/>
-      <c r="AD243" s="2"/>
-      <c r="AF243" s="2"/>
-    </row>
-    <row r="273" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="P273" s="2"/>
-      <c r="R273" s="2"/>
-      <c r="T273" s="2"/>
-      <c r="V273" s="2"/>
-      <c r="X273" s="2"/>
-      <c r="Z273" s="2"/>
-      <c r="AB273" s="2"/>
-      <c r="AD273" s="2"/>
-      <c r="AF273" s="2"/>
-      <c r="AH273" s="2"/>
+    <row r="230" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="X230" s="2"/>
+      <c r="Z230" s="2"/>
+      <c r="AB230" s="2"/>
+      <c r="AD230" s="2"/>
+      <c r="AF230" s="2"/>
+      <c r="AH230" s="2"/>
+    </row>
+    <row r="232" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="V232" s="2"/>
+      <c r="X232" s="2"/>
+      <c r="Z232" s="2"/>
+      <c r="AB232" s="2"/>
+      <c r="AD232" s="2"/>
+      <c r="AF232" s="2"/>
+      <c r="AH232" s="2"/>
+    </row>
+    <row r="234" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="V234" s="2"/>
+      <c r="X234" s="2"/>
+      <c r="Z234" s="2"/>
+      <c r="AB234" s="2"/>
+      <c r="AD234" s="2"/>
+      <c r="AF234" s="2"/>
+      <c r="AH234" s="2"/>
+    </row>
+    <row r="236" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="X236" s="2"/>
+      <c r="AB236" s="2"/>
+      <c r="AD236" s="2"/>
+      <c r="AF236" s="2"/>
+    </row>
+    <row r="238" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="X238" s="2"/>
+      <c r="Z238" s="2"/>
+      <c r="AB238" s="2"/>
+      <c r="AD238" s="2"/>
+      <c r="AF238" s="2"/>
+      <c r="AH238" s="2"/>
+    </row>
+    <row r="244" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="V244" s="2"/>
+      <c r="X244" s="2"/>
+      <c r="Z244" s="2"/>
+      <c r="AB244" s="2"/>
+      <c r="AD244" s="2"/>
+      <c r="AF244" s="2"/>
     </row>
     <row r="274" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F274" s="2"/>
@@ -5434,12 +5443,22 @@
       <c r="AF274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row r="280" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="N280" s="2"/>
-      <c r="P280" s="2"/>
-      <c r="V280" s="2"/>
-      <c r="X280" s="2"/>
-      <c r="Z280" s="2"/>
+    <row r="275" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="N275" s="2"/>
+      <c r="P275" s="2"/>
+      <c r="R275" s="2"/>
+      <c r="T275" s="2"/>
+      <c r="V275" s="2"/>
+      <c r="X275" s="2"/>
+      <c r="Z275" s="2"/>
+      <c r="AB275" s="2"/>
+      <c r="AD275" s="2"/>
+      <c r="AF275" s="2"/>
+      <c r="AH275" s="2"/>
     </row>
     <row r="281" spans="6:34" x14ac:dyDescent="0.25">
       <c r="N281" s="2"/>
@@ -5448,126 +5467,127 @@
       <c r="X281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="284" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="N284" s="2"/>
-      <c r="P284" s="2"/>
-      <c r="V284" s="2"/>
-      <c r="X284" s="2"/>
-      <c r="Z284" s="2"/>
-    </row>
-    <row r="288" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="N288" s="2"/>
-      <c r="P288" s="2"/>
-      <c r="V288" s="2"/>
-      <c r="X288" s="2"/>
-      <c r="Z288" s="2"/>
-    </row>
-    <row r="292" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="J292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="N292" s="2"/>
-      <c r="P292" s="2"/>
-      <c r="R292" s="2"/>
-      <c r="T292" s="2"/>
-      <c r="V292" s="2"/>
-      <c r="X292" s="2"/>
-      <c r="Z292" s="2"/>
-      <c r="AB292" s="2"/>
-    </row>
-    <row r="296" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="L296" s="2"/>
-      <c r="N296" s="2"/>
-      <c r="P296" s="2"/>
-      <c r="V296" s="2"/>
-      <c r="X296" s="2"/>
-      <c r="Z296" s="2"/>
-    </row>
-    <row r="298" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="J298" s="2"/>
-      <c r="L298" s="2"/>
-      <c r="N298" s="2"/>
-      <c r="P298" s="2"/>
-      <c r="R298" s="2"/>
-      <c r="T298" s="2"/>
-      <c r="V298" s="2"/>
-      <c r="X298" s="2"/>
-      <c r="Z298" s="2"/>
-      <c r="AB298" s="2"/>
-    </row>
-    <row r="300" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="J300" s="2"/>
-      <c r="L300" s="2"/>
-      <c r="N300" s="2"/>
-      <c r="P300" s="2"/>
-      <c r="R300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="V300" s="2"/>
-      <c r="X300" s="2"/>
-      <c r="Z300" s="2"/>
-      <c r="AB300" s="2"/>
-    </row>
-    <row r="302" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="L302" s="2"/>
-      <c r="N302" s="2"/>
-      <c r="P302" s="2"/>
-      <c r="V302" s="2"/>
-      <c r="X302" s="2"/>
-      <c r="Z302" s="2"/>
-    </row>
-    <row r="304" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F304" s="2"/>
-      <c r="H304" s="2"/>
-      <c r="L304" s="2"/>
-      <c r="N304" s="2"/>
-      <c r="P304" s="2"/>
-      <c r="V304" s="2"/>
-      <c r="Z304" s="2"/>
-      <c r="AB304" s="2"/>
-    </row>
-    <row r="308" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F308" s="2"/>
-      <c r="H308" s="2"/>
-      <c r="L308" s="2"/>
-      <c r="N308" s="2"/>
-      <c r="P308" s="2"/>
-      <c r="V308" s="2"/>
-      <c r="X308" s="2"/>
-      <c r="Z308" s="2"/>
-      <c r="AB308" s="2"/>
-    </row>
-    <row r="310" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="P310" s="2"/>
-    </row>
-    <row r="312" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F312" s="2"/>
-      <c r="H312" s="2"/>
-      <c r="J312" s="2"/>
-      <c r="L312" s="2"/>
-      <c r="N312" s="2"/>
-      <c r="P312" s="2"/>
-      <c r="R312" s="2"/>
-      <c r="V312" s="2"/>
-      <c r="X312" s="2"/>
-      <c r="Z312" s="2"/>
-      <c r="AB312" s="2"/>
-    </row>
-    <row r="320" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="L320" s="2"/>
-      <c r="N320" s="2"/>
-      <c r="P320" s="2"/>
-      <c r="AH320" s="2"/>
-    </row>
-    <row r="323" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="L323" s="2"/>
-      <c r="N323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="AH323" s="2"/>
+    <row r="282" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="N282" s="2"/>
+      <c r="P282" s="2"/>
+      <c r="V282" s="2"/>
+      <c r="X282" s="2"/>
+      <c r="Z282" s="2"/>
+    </row>
+    <row r="285" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="N285" s="2"/>
+      <c r="P285" s="2"/>
+      <c r="V285" s="2"/>
+      <c r="X285" s="2"/>
+      <c r="Z285" s="2"/>
+    </row>
+    <row r="289" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="N289" s="2"/>
+      <c r="P289" s="2"/>
+      <c r="V289" s="2"/>
+      <c r="X289" s="2"/>
+      <c r="Z289" s="2"/>
+    </row>
+    <row r="293" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="N293" s="2"/>
+      <c r="P293" s="2"/>
+      <c r="R293" s="2"/>
+      <c r="T293" s="2"/>
+      <c r="V293" s="2"/>
+      <c r="X293" s="2"/>
+      <c r="Z293" s="2"/>
+      <c r="AB293" s="2"/>
+    </row>
+    <row r="297" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="L297" s="2"/>
+      <c r="N297" s="2"/>
+      <c r="P297" s="2"/>
+      <c r="V297" s="2"/>
+      <c r="X297" s="2"/>
+      <c r="Z297" s="2"/>
+    </row>
+    <row r="299" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="J299" s="2"/>
+      <c r="L299" s="2"/>
+      <c r="N299" s="2"/>
+      <c r="P299" s="2"/>
+      <c r="R299" s="2"/>
+      <c r="T299" s="2"/>
+      <c r="V299" s="2"/>
+      <c r="X299" s="2"/>
+      <c r="Z299" s="2"/>
+      <c r="AB299" s="2"/>
+    </row>
+    <row r="301" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="N301" s="2"/>
+      <c r="P301" s="2"/>
+      <c r="R301" s="2"/>
+      <c r="T301" s="2"/>
+      <c r="V301" s="2"/>
+      <c r="X301" s="2"/>
+      <c r="Z301" s="2"/>
+      <c r="AB301" s="2"/>
+    </row>
+    <row r="303" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="L303" s="2"/>
+      <c r="N303" s="2"/>
+      <c r="P303" s="2"/>
+      <c r="V303" s="2"/>
+      <c r="X303" s="2"/>
+      <c r="Z303" s="2"/>
+    </row>
+    <row r="305" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="N305" s="2"/>
+      <c r="P305" s="2"/>
+      <c r="V305" s="2"/>
+      <c r="Z305" s="2"/>
+      <c r="AB305" s="2"/>
+    </row>
+    <row r="309" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F309" s="2"/>
+      <c r="H309" s="2"/>
+      <c r="L309" s="2"/>
+      <c r="N309" s="2"/>
+      <c r="P309" s="2"/>
+      <c r="V309" s="2"/>
+      <c r="X309" s="2"/>
+      <c r="Z309" s="2"/>
+      <c r="AB309" s="2"/>
+    </row>
+    <row r="311" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="P311" s="2"/>
+    </row>
+    <row r="313" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F313" s="2"/>
+      <c r="H313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="L313" s="2"/>
+      <c r="N313" s="2"/>
+      <c r="P313" s="2"/>
+      <c r="R313" s="2"/>
+      <c r="V313" s="2"/>
+      <c r="X313" s="2"/>
+      <c r="Z313" s="2"/>
+      <c r="AB313" s="2"/>
+    </row>
+    <row r="321" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="L321" s="2"/>
+      <c r="N321" s="2"/>
+      <c r="P321" s="2"/>
+      <c r="AH321" s="2"/>
     </row>
     <row r="324" spans="6:34" x14ac:dyDescent="0.25">
       <c r="L324" s="2"/>
@@ -5575,25 +5595,17 @@
       <c r="P324" s="2"/>
       <c r="AH324" s="2"/>
     </row>
-    <row r="326" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="L326" s="2"/>
-      <c r="N326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="AH326" s="2"/>
-    </row>
-    <row r="331" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="J331" s="2"/>
-      <c r="L331" s="2"/>
-      <c r="N331" s="2"/>
-      <c r="P331" s="2"/>
-      <c r="R331" s="2"/>
-      <c r="T331" s="2"/>
-      <c r="V331" s="2"/>
-      <c r="X331" s="2"/>
-      <c r="Z331" s="2"/>
-      <c r="AB331" s="2"/>
+    <row r="325" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="L325" s="2"/>
+      <c r="N325" s="2"/>
+      <c r="P325" s="2"/>
+      <c r="AH325" s="2"/>
+    </row>
+    <row r="327" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="L327" s="2"/>
+      <c r="N327" s="2"/>
+      <c r="P327" s="2"/>
+      <c r="AH327" s="2"/>
     </row>
     <row r="332" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F332" s="2"/>
@@ -5609,6 +5621,20 @@
       <c r="Z332" s="2"/>
       <c r="AB332" s="2"/>
     </row>
+    <row r="333" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="L333" s="2"/>
+      <c r="N333" s="2"/>
+      <c r="P333" s="2"/>
+      <c r="R333" s="2"/>
+      <c r="T333" s="2"/>
+      <c r="V333" s="2"/>
+      <c r="X333" s="2"/>
+      <c r="Z333" s="2"/>
+      <c r="AB333" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
